--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -504,17 +504,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
@@ -538,24 +538,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,143 +565,143 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -453,177 +453,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ben Simmons</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,58 +633,58 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -487,41 +487,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,14 +531,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,160 +548,160 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
@@ -487,24 +487,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,31 +514,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,14 +548,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,41 +565,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
@@ -623,41 +623,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nikola Jokic</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,41 +667,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -487,34 +487,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,58 +650,58 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -470,51 +470,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
@@ -657,41 +657,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -470,51 +470,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
@@ -657,41 +657,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -470,51 +470,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,58 +650,58 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,41 +463,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
@@ -521,24 +521,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -555,24 +555,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -589,17 +589,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
@@ -657,51 +657,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Corey Kispert</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,17 +572,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Corey Kispert</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
@@ -640,58 +640,58 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Corey Kispert</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,56 +701,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>Orlando Magic</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Chet Holmgren</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PF,C</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>Oklahoma City Thunder</t>
         </is>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,106 +25,109 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Naji Marshall</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Bogdan Bogdanovic</t>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
   </si>
   <si>
     <t>Jerami Grant</t>
   </si>
   <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +527,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -543,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -554,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -565,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -587,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -686,10 +689,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
     <t>Naji Marshall</t>
   </si>
   <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
     <t>Clint Capela</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -79,58 +79,58 @@
     <t>Jerami Grant</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -538,7 +538,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -700,10 +700,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,49 +25,49 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Zaccharie Risacher</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Naji Marshall</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Jakob Poeltl</t>
   </si>
   <si>
     <t>Nikola Jokic</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
+    <t>Jerami Grant</t>
   </si>
   <si>
     <t>Paolo Banchero</t>
@@ -76,61 +76,58 @@
     <t>Chet Holmgren</t>
   </si>
   <si>
-    <t>Jerami Grant</t>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -491,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -524,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -535,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +579,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -656,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,18 +689,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,13 +25,16 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Zaccharie Risacher</t>
+    <t>Pascal Siakam</t>
   </si>
   <si>
     <t>Clint Capela</t>
@@ -40,97 +43,91 @@
     <t>Rudy Gobert</t>
   </si>
   <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Julian Champagnie</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
   </si>
   <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF</t>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
+    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
+    <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
 </sst>
 </file>
@@ -513,7 +510,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,7 +532,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,7 +543,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -576,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -587,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,7 +609,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +617,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +639,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -664,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +672,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -686,10 +683,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,109 +25,109 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Julian Champagnie</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Julian Champagnie</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
-    <t>Jalen Green</t>
+    <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -540,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -551,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -573,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -606,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -617,10 +617,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,10 +639,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -661,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -672,10 +672,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -683,7 +683,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,6 +28,39 @@
     <t>Chris Paul</t>
   </si>
   <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Julian Champagnie</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
@@ -37,97 +70,70 @@
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Julian Champagnie</t>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
   </si>
   <si>
     <t>Jakob Poeltl</t>
   </si>
   <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -518,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -540,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -551,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -562,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -573,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -584,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -595,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -661,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -672,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -683,10 +689,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
+      <c r="C19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,48 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Julian Champagnie</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Julian Champagnie</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
     <t>Ayo Dosunmu</t>
   </si>
   <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
     <t>Jalen Green</t>
   </si>
   <si>
@@ -82,49 +82,49 @@
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>C</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Houston Rockets</t>
@@ -546,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -700,7 +700,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -28,112 +28,112 @@
     <t>Russell Westbrook</t>
   </si>
   <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Julian Champagnie</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
   </si>
   <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -546,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,10 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -700,10 +700,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,48 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
     <t>Nikola Jokic</t>
   </si>
   <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
     <t>Ayo Dosunmu</t>
   </si>
   <si>
@@ -79,55 +79,55 @@
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -571,7 +571,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -593,7 +593,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -656,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -703,7 +703,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,18 +25,24 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
@@ -55,18 +61,12 @@
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
     <t>Nikola Jokic</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Ayo Dosunmu</t>
   </si>
   <si>
@@ -82,6 +82,9 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -94,21 +97,24 @@
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
@@ -121,13 +127,7 @@
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -568,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +593,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -623,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -700,10 +700,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -79,22 +79,49 @@
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG</t>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -103,34 +130,7 @@
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
     <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -593,7 +593,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -703,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,58 +25,58 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
     <t>Ayo Dosunmu</t>
   </si>
   <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
-    <t>Bogdan Bogdanovic</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
@@ -85,9 +85,6 @@
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -97,40 +94,40 @@
     <t>C</t>
   </si>
   <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -491,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +535,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -634,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -645,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +656,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,21 +686,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -88,10 +88,16 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -513,7 +519,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +530,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,7 +541,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +651,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +673,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -686,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,79 +25,100 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
     <t>Alexandre Sarr</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
     <t>Jakob Poeltl</t>
   </si>
   <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -106,37 +127,16 @@
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -607,7 +607,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -629,7 +629,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -28,45 +28,45 @@
     <t>Russell Westbrook</t>
   </si>
   <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
     <t>Ayo Dosunmu</t>
   </si>
   <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
+    <t>Alexandre Sarr</t>
   </si>
   <si>
     <t>Naz Reid</t>
   </si>
   <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -79,58 +79,58 @@
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
     <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -549,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -593,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +662,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -692,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,48 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Dru Smith</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
     <t>Nikola Jokic</t>
   </si>
   <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Naz Reid</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -76,10 +79,13 @@
     <t>Jakob Poeltl</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>SG,SF</t>
@@ -94,43 +100,43 @@
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -494,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -648,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +698,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Alexandre Sarr</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
     <t>Dru Smith</t>
   </si>
   <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>Jakob Poeltl</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
@@ -97,10 +97,37 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Orlando Magic</t>
@@ -109,34 +136,7 @@
     <t>Miami Heat</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -624,7 +624,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +657,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -55,21 +55,21 @@
     <t>Nikola Jokic</t>
   </si>
   <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
+    <t>Brandon Boston Jr.</t>
+  </si>
+  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
-    <t>Dru Smith</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -103,6 +103,9 @@
     <t>C</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
@@ -127,16 +130,13 @@
     <t>Washington Wizards</t>
   </si>
   <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -525,7 +525,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,7 +536,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,7 +547,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,7 +558,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,7 +569,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +580,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +591,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +602,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +646,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,48 +28,48 @@
     <t>Russell Westbrook</t>
   </si>
   <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
+    <t>Malcolm Brogdon</t>
   </si>
   <si>
     <t>Alexandre Sarr</t>
   </si>
   <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
-    <t>Brandon Boston Jr.</t>
-  </si>
-  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -82,61 +82,64 @@
     <t>PG</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -533,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -544,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -588,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +605,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -643,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,100 +25,112 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
   </si>
   <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
   </si>
   <si>
     <t>Deni Avdija</t>
   </si>
   <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
     <t>Jerami Grant</t>
   </si>
   <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
-    <t>Alexandre Sarr</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>SF,PF,C</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
+    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Indiana Pacers</t>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
@@ -127,25 +139,10 @@
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
+    <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
 </sst>
 </file>
@@ -528,7 +525,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -624,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -712,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,60 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Trayce Jackson-Davis</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -88,58 +88,61 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -544,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -569,7 +572,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -687,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,48 +28,48 @@
     <t>Dejounte Murray</t>
   </si>
   <si>
+    <t>Keon Johnson</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Draymond Green</t>
   </si>
   <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
     <t>Nikola Jokic</t>
   </si>
   <si>
-    <t>Trayce Jackson-Davis</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -88,58 +88,61 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Orlando Magic</t>
@@ -624,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +641,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,7 +696,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,7 +718,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -28,48 +28,48 @@
     <t>Dejounte Murray</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
     <t>Keon Johnson</t>
   </si>
   <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -88,61 +88,61 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Orlando Magic</t>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -630,7 +630,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,7 +641,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -31,45 +31,45 @@
     <t>Russell Westbrook</t>
   </si>
   <si>
+    <t>Keon Johnson</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
     <t>Tyus Jones</t>
   </si>
   <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Draymond Green</t>
   </si>
   <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Keon Johnson</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -85,64 +85,64 @@
     <t>PG</t>
   </si>
   <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Orlando Magic</t>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -608,7 +608,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -671,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Keon Johnson</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Keon Johnson</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -79,15 +79,18 @@
     <t>Jalen Suggs</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
@@ -100,49 +103,46 @@
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PF,C</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Orlando Magic</t>
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -608,7 +608,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,7 +652,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,7 +663,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -704,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,54 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Tyus Jones</t>
+    <t>Chris Paul</t>
   </si>
   <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Keon Johnson</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Trayce Jackson-Davis</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Bennedict Mathurin</t>
   </si>
   <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
   </si>
   <si>
     <t>Deni Avdija</t>
   </si>
   <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
@@ -85,67 +82,58 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
+    <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -506,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -553,7 +541,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -575,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -586,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +585,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,7 +618,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,21 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,66 +25,75 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Keon Johnson</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Trayce Jackson-Davis</t>
+    <t>Bennedict Mathurin</t>
+  </si>
+  <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
   </si>
   <si>
     <t>Khris Middleton</t>
   </si>
   <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -94,49 +103,46 @@
     <t>SF</t>
   </si>
   <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +569,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +580,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +591,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +613,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -695,7 +701,18 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -43,42 +43,39 @@
     <t>Paolo Banchero</t>
   </si>
   <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
     <t>Bennedict Mathurin</t>
   </si>
   <si>
-    <t>Aaron Wiggins</t>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
   </si>
   <si>
     <t>Deni Avdija</t>
   </si>
   <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -91,18 +88,18 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
@@ -121,28 +118,28 @@
     <t>Orlando Magic</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
 </sst>
 </file>
@@ -500,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,21 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,48 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
     <t>Keon Johnson</t>
   </si>
   <si>
-    <t>Chris Paul</t>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
   </si>
   <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
   </si>
   <si>
     <t>Buddy Hield</t>
   </si>
   <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
   </si>
   <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
-    <t>Bennedict Mathurin</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
@@ -76,61 +79,70 @@
     <t>Deni Avdija</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>San Antonio Spurs</t>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Orlando Magic</t>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
@@ -497,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +542,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +564,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +575,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +652,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +663,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +685,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +696,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +707,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,6 +25,39 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
@@ -37,39 +70,6 @@
     <t>Keon Johnson</t>
   </si>
   <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
@@ -79,73 +79,73 @@
     <t>Deni Avdija</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -608,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -619,7 +619,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -633,7 +633,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,10 +652,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,10 +663,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -674,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -707,10 +707,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -718,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Keon Johnson</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
     <t>Buddy Hield</t>
   </si>
   <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Keon Johnson</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
@@ -79,73 +79,73 @@
     <t>Deni Avdija</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -586,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,7 +600,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -644,7 +644,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -655,7 +655,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,10 +663,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -674,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -707,10 +707,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -718,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,133 +25,124 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Keon Johnson</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
-    <t>Deni Avdija</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
 </sst>
 </file>
@@ -509,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -542,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -553,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -564,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -575,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -586,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -608,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -619,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -641,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -663,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -674,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -685,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -696,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -707,21 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,45 +25,45 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
     <t>Chris Paul</t>
   </si>
   <si>
@@ -103,37 +103,37 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
@@ -613,7 +613,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +635,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +646,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,45 +25,45 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
     <t>Chris Paul</t>
   </si>
   <si>
@@ -103,27 +103,30 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
@@ -131,9 +134,6 @@
   </si>
   <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
@@ -613,7 +613,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +635,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +646,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,57 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Nick Smith Jr.</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
   </si>
   <si>
     <t>Khris Middleton</t>
   </si>
   <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -91,58 +94,58 @@
     <t>C</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -577,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -621,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -632,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -698,10 +701,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>33</v>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,34 +25,43 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Nick Smith Jr.</t>
+  </si>
+  <si>
     <t>Ayo Dosunmu</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Nick Smith Jr.</t>
+    <t>Paolo Banchero</t>
   </si>
   <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
   </si>
   <si>
     <t>Deni Avdija</t>
   </si>
   <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
+    <t>Jalen Green</t>
   </si>
   <si>
     <t>Jose Alvarado</t>
@@ -61,15 +70,6 @@
     <t>Jakob Poeltl</t>
   </si>
   <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
@@ -79,67 +79,67 @@
     <t>Khris Middleton</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
+    <t>SF,PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -572,7 +572,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -701,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Nick Smith Jr.</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
+    <t>Deni Avdija</t>
   </si>
   <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
+    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -701,20 +701,9 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
         <v>43</v>
       </c>
     </row>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,127 +25,127 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Brandin Podziemski</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
+    <t>Chet Holmgren</t>
   </si>
   <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
+    <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
+    <t>SF</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF</t>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -34,78 +34,78 @@
     <t>Payton Pritchard</t>
   </si>
   <si>
-    <t>Brandin Podziemski</t>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
   </si>
   <si>
     <t>Ayo Dosunmu</t>
   </si>
   <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
   </si>
   <si>
     <t>Deni Avdija</t>
   </si>
   <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
   </si>
   <si>
     <t>Khris Middleton</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG</t>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
+    <t>PF,C</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
@@ -115,37 +115,37 @@
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
+    <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -572,7 +572,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +701,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,124 +28,121 @@
     <t>Chris Paul</t>
   </si>
   <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Stephon Castle</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>SF,PF</t>
   </si>
   <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>SF</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
+    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
 </sst>
 </file>
@@ -547,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -558,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -594,7 +591,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,7 +657,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -679,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -701,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
     <t>Dillon Brooks</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
     <t>Deni Avdija</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Stephon Castle</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
@@ -79,67 +79,64 @@
     <t>Russell Westbrook</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Orlando Magic</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -525,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +588,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +599,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +610,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +621,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +632,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +676,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
     <t>Ty Jerome</t>
   </si>
   <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Stephon Castle</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
@@ -79,10 +79,25 @@
     <t>Russell Westbrook</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>SG,SF</t>
@@ -91,52 +106,40 @@
     <t>PF,C</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
     <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -522,7 +525,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -566,7 +569,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -596,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -607,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -618,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -629,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -640,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +679,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,70 +28,76 @@
     <t>Chris Paul</t>
   </si>
   <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Nick Richards</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Stephon Castle</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
   </si>
   <si>
     <t>Jakob Poeltl</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>SF</t>
+    <t>SG,SF,PF</t>
   </si>
   <si>
     <t>C</t>
@@ -100,49 +106,40 @@
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
+    <t>Chicago Bulls</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
 </sst>
 </file>
@@ -536,7 +533,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -599,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -610,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -621,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -632,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -643,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -654,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -31,45 +31,45 @@
     <t>Stephon Castle</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
   </si>
   <si>
     <t>Deni Avdija</t>
   </si>
   <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Nick Richards</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
@@ -88,55 +88,55 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -698,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -34,42 +34,42 @@
     <t>Payton Pritchard</t>
   </si>
   <si>
+    <t>Brandin Podziemski</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
     <t>Dillon Brooks</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
@@ -85,58 +85,64 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -522,7 +528,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,7 +539,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +550,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,7 +561,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,7 +572,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,7 +704,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -43,30 +43,30 @@
     <t>Paolo Banchero</t>
   </si>
   <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
     <t>Dillon Brooks</t>
   </si>
   <si>
@@ -91,21 +91,21 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
@@ -124,25 +124,22 @@
     <t>Orlando Magic</t>
   </si>
   <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -624,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -635,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -646,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -657,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,7 +679,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -715,7 +712,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -34,42 +34,42 @@
     <t>Payton Pritchard</t>
   </si>
   <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Aaron Wiggins</t>
+  </si>
+  <si>
     <t>Brandin Podziemski</t>
   </si>
   <si>
     <t>Deni Avdija</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
     <t>Nikola Jokic</t>
   </si>
   <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Aaron Wiggins</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
@@ -85,61 +85,61 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +690,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SG</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
@@ -525,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,7 +533,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,7 +544,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,7 +555,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,7 +566,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +577,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +588,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +610,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +621,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +632,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +654,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +665,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +676,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +687,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,7 +709,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -31,48 +31,48 @@
     <t>Stephon Castle</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Brandin Podziemski</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Anthony Black</t>
+  </si>
+  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Ayo Dosunmu</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
   </si>
   <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Aaron Wiggins</t>
-  </si>
-  <si>
-    <t>Brandin Podziemski</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
     <t>Jalen Suggs</t>
   </si>
   <si>
@@ -91,52 +91,46 @@
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>SF,PF,C</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
+    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -522,7 +516,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,7 +527,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +538,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,7 +637,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,7 +703,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -40,36 +40,36 @@
     <t>Dillon Brooks</t>
   </si>
   <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Anthony Black</t>
+  </si>
+  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Anthony Black</t>
-  </si>
-  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
@@ -112,22 +112,22 @@
     <t>Golden State Warriors</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
@@ -637,7 +637,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,48 +28,48 @@
     <t>Chris Paul</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Brandin Podziemski</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
     <t>Stephon Castle</t>
   </si>
   <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Brandin Podziemski</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Anthony Black</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
@@ -85,15 +85,15 @@
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
     <t>SF,PF,C</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
@@ -106,28 +106,31 @@
     <t>San Antonio Spurs</t>
   </si>
   <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
@@ -527,7 +530,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +541,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +607,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +618,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +706,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Brandin Podziemski</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Zaccharie Risacher</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Brandin Podziemski</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
     <t>Stephon Castle</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
@@ -85,13 +85,16 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
+    <t>SF</t>
   </si>
   <si>
     <t>PF,C</t>
@@ -100,37 +103,34 @@
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
@@ -563,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -659,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -681,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -695,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -40,45 +40,45 @@
     <t>Jaylen Brown</t>
   </si>
   <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Bol Bol</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jalen Suggs</t>
+  </si>
+  <si>
     <t>Deni Avdija</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Zaccharie Risacher</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Stephon Castle</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -94,9 +94,6 @@
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
@@ -115,16 +112,19 @@
     <t>Boston Celtics</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Houston Rockets</t>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
 </sst>
 </file>
@@ -519,7 +516,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,7 +527,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,7 +538,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +549,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +571,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -681,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -695,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,10 +700,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
     <t>Cole Anthony</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Bol Bol</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
   </si>
   <si>
     <t>Brandin Podziemski</t>
   </si>
   <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Bol Bol</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Stephon Castle</t>
-  </si>
-  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
@@ -100,37 +100,37 @@
     <t>C</t>
   </si>
   <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
@@ -538,7 +538,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -571,7 +571,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,66 +25,66 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Brandin Podziemski</t>
+  </si>
+  <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Stephon Castle</t>
-  </si>
-  <si>
-    <t>Cole Anthony</t>
-  </si>
-  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Kyle Filipowski</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Bol Bol</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
     <t>Jakob Poeltl</t>
   </si>
   <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Brandin Podziemski</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jalen Suggs</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
@@ -100,37 +100,43 @@
     <t>C</t>
   </si>
   <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
   </si>
   <si>
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Minnesota Timberwolves</t>
@@ -524,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -535,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -571,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +588,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +599,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +621,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +687,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -700,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Payton Pritchard</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Brandin Podziemski</t>
+  </si>
+  <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Kyle Filipowski</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Brandin Podziemski</t>
-  </si>
-  <si>
     <t>Stephon Castle</t>
   </si>
   <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Kyle Filipowski</t>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
   </si>
   <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Payton Pritchard</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF,PF,C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF,C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
   </si>
 </sst>
 </file>
@@ -552,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -706,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -31,63 +31,63 @@
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
-    <t>Brandin Podziemski</t>
+    <t>Kyshawn George</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Kyle Filipowski</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
   </si>
   <si>
     <t>Deni Avdija</t>
   </si>
   <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Kyle Filipowski</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Stephon Castle</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
@@ -97,49 +97,43 @@
     <t>SF,PF,C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
 </sst>
 </file>
@@ -497,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +538,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -673,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,7 +681,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,21 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/Orthopedics United.xlsx
+++ b/yahoo/Orthopedics United.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,115 +25,106 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Stephon Castle</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Cole Anthony</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Kyle Filipowski</t>
+  </si>
+  <si>
+    <t>Paolo Banchero</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
     <t>Payton Pritchard</t>
   </si>
   <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
-    <t>Kyshawn George</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
-    <t>Paolo Banchero</t>
-  </si>
-  <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
-    <t>Kyle Filipowski</t>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
   </si>
   <si>
     <t>Jakob Poeltl</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Stephon Castle</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
+    <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>SF,PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF,PF,C</t>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Boston Celtics</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
   </si>
 </sst>
 </file>
@@ -491,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +504,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +518,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,10 +526,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +548,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +559,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +581,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +592,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +603,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +614,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +625,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +647,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +658,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,17 +672,6 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
         <v>36</v>
       </c>
     </row>
